--- a/Files/excel/testsetUsers.xlsx
+++ b/Files/excel/testsetUsers.xlsx
@@ -16,7 +16,7 @@
     <t>firstName</t>
   </si>
   <si>
-    <t>midName</t>
+    <t>middleName</t>
   </si>
   <si>
     <t>lastName</t>
